--- a/tests/data/output/一级报告详情测试用例-09001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-09001_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"曹强","id_card_no":"441721194409114128"}</t>
+          <t>{"user_name":"雷丽华","id_card_no":"420102195606229483"}</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"和淑兰","id_card_no":"451202198601086538"}</t>
+          <t>{"user_name":"门兰英","id_card_no":"130111197211226970"}</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"沈辉","id_card_no":"130603196302133625"}</t>
+          <t>{"user_name":"衡宁","id_card_no":"440307195708144882"}</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"管燕","id_card_no":"320601199110267158"}</t>
+          <t>{"user_name":"云鹏","id_card_no":"654023197201207018"}</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"微秀梅","id_card_no":"340506197108225822"}</t>
+          <t>{"user_name":"姜波","id_card_no":"520624197709013085"}</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"贾红","id_card_no":"610102193801231606"}</t>
+          <t>{"user_name":"郏雪梅","id_card_no":"130435195209302995"}</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"劳兰英","id_card_no":"410327193405295668"}</t>
+          <t>{"user_name":"荆霞","id_card_no":"230902199108020130"}</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"广洁","id_card_no":"341321195701258558"}</t>
+          <t>{"user_name":"聂雪","id_card_no":"330624195905050663"}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"苍秀英","id_card_no":"420602193208233004"}</t>
+          <t>{"user_name":"夏娜","id_card_no":"532625196807193097"}</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"姚红霞","id_card_no":"320811198208147049"}</t>
+          <t>{"user_name":"宇玉珍","id_card_no":"320612199306179132"}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"汲芳","id_card_no":"52011219471028146X"}</t>
+          <t>{"user_name":"封淑华","id_card_no":"371122196612083050"}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"祝亮","id_card_no":"360322194207296932"}</t>
+          <t>{"user_name":"哈静","id_card_no":"610927199009153737"}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"仰淑华","id_card_no":"440404194109308066"}</t>
+          <t>{"user_name":"汲璐","id_card_no":"420324198311308793"}</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"年云","id_card_no":"150204197601180969"}</t>
+          <t>{"user_name":"强秀华","id_card_no":"330501193101124664"}</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"蒋桂芳","id_card_no":"530827196601249632"}</t>
+          <t>{"user_name":"丘婷婷","id_card_no":"411728194904289207"}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"山凯","id_card_no":"370785198211129544"}</t>
+          <t>{"user_name":"粱俊","id_card_no":"210904195706203261"}</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"咎丽娟","id_card_no":"610624196508125731"}</t>
+          <t>{"user_name":"人建平","id_card_no":"511703197304104053"}</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"驷帆","id_card_no":"411321193505219980"}</t>
+          <t>{"user_name":"左桂芝","id_card_no":"150524197601056206"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"娄慧","id_card_no":"210114194404050049"}</t>
+          <t>{"user_name":"堵阳","id_card_no":"370881199304052552"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"祝瑜","id_card_no":"430321197805042006"}</t>
+          <t>{"user_name":"卫龙","id_card_no":"43082119461211891X"}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"仰瑞","id_card_no":"65322219791209712X"}</t>
+          <t>{"user_name":"穆凯","id_card_no":"512081194910150867"}</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"晁佳","id_card_no":"13042319540817808X"}</t>
+          <t>{"user_name":"申洋","id_card_no":"450721194405231272"}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"赵杰","id_card_no":"420201197902182614"}</t>
+          <t>{"user_name":"禄林","id_card_no":"532927199805250898"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"奚玉英","id_card_no":"522723195407037075"}</t>
+          <t>{"user_name":"申冬梅","id_card_no":"15020119470705014X"}</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"冉凤兰","id_card_no":"451031195807122298"}</t>
+          <t>{"user_name":"余丽丽","id_card_no":"330282195809142113"}</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"申辉","id_card_no":"445102197610282946"}</t>
+          <t>{"user_name":"富雪梅","id_card_no":"540100199908014640"}</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"宿玉兰","id_card_no":"371601196702216457"}</t>
+          <t>{"user_name":"倪磊","id_card_no":"410711195001133670"}</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"都建华","id_card_no":"140801199003138542"}</t>
+          <t>{"user_name":"隗勇","id_card_no":"210911195806120854"}</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"宗兵","id_card_no":"131122196604209595"}</t>
+          <t>{"user_name":"百成","id_card_no":"360600198301040059"}</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"晋勇","id_card_no":"360425200105168633"}</t>
+          <t>{"user_name":"厉文","id_card_no":"150782196805155513"}</t>
         </is>
       </c>
     </row>
